--- a/docs/prominence/20170414/Taiwan_3000+_peak.xlsx
+++ b/docs/prominence/20170414/Taiwan_3000+_peak.xlsx
@@ -318,9 +318,6 @@
     <t>烏達佩山</t>
   </si>
   <si>
-    <t>安北山</t>
-  </si>
-  <si>
     <t>阿巴拉山</t>
   </si>
   <si>
@@ -511,6 +508,10 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安東軍北峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -903,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4509,7 +4510,7 @@
         <v>3016</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="F89" s="1">
         <v>168</v>
@@ -4550,7 +4551,7 @@
         <v>3046</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F90" s="1">
         <v>167</v>
@@ -4591,7 +4592,7 @@
         <v>3056</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F91" s="1">
         <v>166</v>
@@ -4632,7 +4633,7 @@
         <v>3517</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F92" s="1">
         <v>166</v>
@@ -4673,7 +4674,7 @@
         <v>3224</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F93" s="1">
         <v>165</v>
@@ -4714,7 +4715,7 @@
         <v>3384</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F94" s="1">
         <v>163</v>
@@ -4755,7 +4756,7 @@
         <v>3112</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F95" s="1">
         <v>161</v>
@@ -4796,7 +4797,7 @@
         <v>3197</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" s="1">
         <v>160</v>
@@ -4837,7 +4838,7 @@
         <v>3411</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F97" s="1">
         <v>159</v>
@@ -4878,7 +4879,7 @@
         <v>3000</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F98" s="1">
         <v>159</v>
@@ -4919,7 +4920,7 @@
         <v>3170</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F99" s="1">
         <v>158</v>
@@ -4960,7 +4961,7 @@
         <v>3020</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F100" s="1">
         <v>158</v>
@@ -5001,7 +5002,7 @@
         <v>3125</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F101" s="1">
         <v>154</v>
@@ -5042,7 +5043,7 @@
         <v>3228</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F102" s="1">
         <v>153</v>
@@ -5083,7 +5084,7 @@
         <v>3070</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F103" s="1">
         <v>152</v>
@@ -5124,7 +5125,7 @@
         <v>3377</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F104" s="1">
         <v>151</v>
@@ -5165,7 +5166,7 @@
         <v>3487</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F105" s="1">
         <v>151</v>
@@ -5206,7 +5207,7 @@
         <v>3255</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F106" s="1">
         <v>150</v>
@@ -5247,7 +5248,7 @@
         <v>3275</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F107" s="1">
         <v>147</v>
@@ -5288,7 +5289,7 @@
         <v>3397</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F108" s="1">
         <v>146</v>
@@ -5329,7 +5330,7 @@
         <v>3232</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F109" s="1">
         <v>145</v>
@@ -5370,7 +5371,7 @@
         <v>3020</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F110" s="1">
         <v>143</v>
@@ -5411,7 +5412,7 @@
         <v>3407</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F111" s="1">
         <v>143</v>
@@ -5452,7 +5453,7 @@
         <v>3639</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F112" s="1">
         <v>142</v>
@@ -5493,7 +5494,7 @@
         <v>3258</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F113" s="1">
         <v>138</v>
@@ -5534,7 +5535,7 @@
         <v>3358</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F114" s="1">
         <v>138</v>
@@ -5575,7 +5576,7 @@
         <v>3162</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F115" s="1">
         <v>137</v>
@@ -5616,7 +5617,7 @@
         <v>3336</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F116" s="1">
         <v>136</v>
@@ -5657,7 +5658,7 @@
         <v>3292</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F117" s="1">
         <v>135</v>
@@ -5698,7 +5699,7 @@
         <v>3170</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F118" s="1">
         <v>134</v>
@@ -5739,7 +5740,7 @@
         <v>3015</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F119" s="1">
         <v>132</v>
@@ -5780,7 +5781,7 @@
         <v>3467</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F120" s="1">
         <v>131</v>
@@ -5821,7 +5822,7 @@
         <v>3136</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F121" s="1">
         <v>130</v>
@@ -5862,7 +5863,7 @@
         <v>3084</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F122" s="1">
         <v>129</v>
@@ -5903,7 +5904,7 @@
         <v>3862</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F123" s="1">
         <v>128</v>
@@ -5944,7 +5945,7 @@
         <v>3271</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F124" s="1">
         <v>128</v>
@@ -5985,7 +5986,7 @@
         <v>3114</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F125" s="1">
         <v>128</v>
@@ -6026,7 +6027,7 @@
         <v>3413</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F126" s="1">
         <v>126</v>
@@ -6067,7 +6068,7 @@
         <v>3229</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F127" s="1">
         <v>123</v>
@@ -6108,7 +6109,7 @@
         <v>3357</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F128" s="1">
         <v>122</v>
@@ -6149,7 +6150,7 @@
         <v>3016</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F129" s="1">
         <v>118</v>
@@ -6190,7 +6191,7 @@
         <v>3165</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F130" s="1">
         <v>118</v>
@@ -6231,7 +6232,7 @@
         <v>3152</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F131" s="1">
         <v>118</v>
@@ -6272,7 +6273,7 @@
         <v>3103</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F132" s="1">
         <v>117</v>
@@ -6313,7 +6314,7 @@
         <v>3511</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F133" s="1">
         <v>116</v>
@@ -6354,7 +6355,7 @@
         <v>3629</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F134" s="1">
         <v>116</v>
@@ -6378,7 +6379,7 @@
         <v>3639</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6395,7 +6396,7 @@
         <v>3578</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F135" s="1">
         <v>115</v>
@@ -6436,7 +6437,7 @@
         <v>3181</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F136" s="1">
         <v>113</v>
@@ -6477,7 +6478,7 @@
         <v>3378</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F137" s="1">
         <v>113</v>
@@ -6518,7 +6519,7 @@
         <v>3100</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F138" s="1">
         <v>112</v>
@@ -6559,7 +6560,7 @@
         <v>3190</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F139" s="1">
         <v>109</v>
@@ -6600,7 +6601,7 @@
         <v>3346</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F140" s="1">
         <v>108</v>
@@ -6641,7 +6642,7 @@
         <v>3167</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F141" s="1">
         <v>108</v>
@@ -6682,7 +6683,7 @@
         <v>3127</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F142" s="1">
         <v>106</v>
@@ -6723,7 +6724,7 @@
         <v>3086</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F143" s="1">
         <v>106</v>
@@ -6764,7 +6765,7 @@
         <v>3088</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F144" s="1">
         <v>105</v>
@@ -6805,7 +6806,7 @@
         <v>3694</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F145" s="1">
         <v>104</v>
@@ -6846,7 +6847,7 @@
         <v>3128</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F146" s="1">
         <v>103</v>
@@ -6887,7 +6888,7 @@
         <v>3195</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F147" s="1">
         <v>102</v>
@@ -6928,7 +6929,7 @@
         <v>3411</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F148" s="1">
         <v>102</v>
@@ -6969,7 +6970,7 @@
         <v>3304</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F149" s="1">
         <v>101</v>
@@ -7010,7 +7011,7 @@
         <v>3227</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F150" s="1">
         <v>101</v>
@@ -7051,7 +7052,7 @@
         <v>3180</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F151" s="1">
         <v>101</v>
@@ -7092,7 +7093,7 @@
         <v>3573</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F152" s="1">
         <v>100</v>
